--- a/experiments/exp_id6_ApplicationAnalysis/exper_id6_selectedStats_8hops.xlsx
+++ b/experiments/exp_id6_ApplicationAnalysis/exper_id6_selectedStats_8hops.xlsx
@@ -1,25 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\Graduate\SimulationOf_2GQRepeater\SimPySImulation\qwanta_1c\exp_id13\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\Qwanta\qwanta\experiments\exp_id6_ApplicationAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5F4C16-CBAD-46D1-A34B-F77093B336D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9749F667-7B43-47B2-864C-7B188997C9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6075" yWindow="1485" windowWidth="21600" windowHeight="11295" tabRatio="707" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0G" sheetId="1" r:id="rId1"/>
-    <sheet name="1G-Ss-Dp" sheetId="2" r:id="rId2"/>
-    <sheet name="2G-NonLocalCNOT" sheetId="3" r:id="rId3"/>
-    <sheet name="1-2G-DirectedEncoded" sheetId="4" r:id="rId4"/>
-    <sheet name="HG-END2ENDPurifiedEncoded" sheetId="7" r:id="rId5"/>
-    <sheet name="1-2G-DirectedEncoded-Perfect" sheetId="5" r:id="rId6"/>
-    <sheet name="2G-NonLocalCNOT-Perfect" sheetId="6" r:id="rId7"/>
+    <sheet name="E2E-1G-Ss-Dp" sheetId="8" r:id="rId2"/>
+    <sheet name="1G-Ss-Dp" sheetId="2" r:id="rId3"/>
+    <sheet name="2G-NonLocalCNOT" sheetId="3" r:id="rId4"/>
+    <sheet name="1-2G-DirectedEncoded" sheetId="4" r:id="rId5"/>
+    <sheet name="HG-END2ENDPurifiedEncoded" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="41">
   <si>
     <t>Main Process</t>
   </si>
@@ -151,9 +150,6 @@
   </si>
   <si>
     <t>Purified-encoded</t>
-  </si>
-  <si>
-    <t>Perfect</t>
   </si>
   <si>
     <t>Swapped</t>
@@ -512,7 +508,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:H16"/>
+      <selection sqref="A1:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -851,11 +847,372 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0A6CDF-F1A4-4A56-8C38-BD1BFE298E19}">
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="48.375" customWidth="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18">
+        <v>9000</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:B13"/>
+      <selection activeCell="A10" sqref="A10:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1361,7 +1718,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H26"/>
   <sheetViews>
@@ -1890,7 +2247,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H42"/>
   <sheetViews>
@@ -2603,7 +2960,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{892EEA55-C529-486E-9A88-AD341ABC9753}">
   <dimension ref="A1:H19"/>
   <sheetViews>
@@ -2914,7 +3271,7 @@
         <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
@@ -2931,7 +3288,7 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" t="s">
         <v>34</v>
@@ -2986,1263 +3343,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H33"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="43.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" t="s">
-        <v>37</v>
-      </c>
-      <c r="H26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" t="s">
-        <v>37</v>
-      </c>
-      <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" t="s">
-        <v>25</v>
-      </c>
-      <c r="F28" t="s">
-        <v>37</v>
-      </c>
-      <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" t="s">
-        <v>37</v>
-      </c>
-      <c r="H29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" t="s">
-        <v>37</v>
-      </c>
-      <c r="H30" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" t="s">
-        <v>25</v>
-      </c>
-      <c r="F31" t="s">
-        <v>37</v>
-      </c>
-      <c r="H31" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" t="s">
-        <v>25</v>
-      </c>
-      <c r="E32" t="s">
-        <v>30</v>
-      </c>
-      <c r="F32" t="s">
-        <v>37</v>
-      </c>
-      <c r="H32" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33">
-        <v>9000</v>
-      </c>
-      <c r="D33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" t="s">
-        <v>37</v>
-      </c>
-      <c r="H33" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H25"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="7" max="7" width="14.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" t="s">
-        <v>37</v>
-      </c>
-      <c r="H19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" t="s">
-        <v>37</v>
-      </c>
-      <c r="H20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" t="s">
-        <v>37</v>
-      </c>
-      <c r="H21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" t="s">
-        <v>37</v>
-      </c>
-      <c r="H22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" t="s">
-        <v>37</v>
-      </c>
-      <c r="H23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" t="s">
-        <v>37</v>
-      </c>
-      <c r="H24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25">
-        <v>9000</v>
-      </c>
-      <c r="D25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" t="s">
-        <v>37</v>
-      </c>
-      <c r="H25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
 </file>
--- a/experiments/exp_id6_ApplicationAnalysis/exper_id6_selectedStats_8hops.xlsx
+++ b/experiments/exp_id6_ApplicationAnalysis/exper_id6_selectedStats_8hops.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\Qwanta\qwanta\experiments\exp_id6_ApplicationAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9749F667-7B43-47B2-864C-7B188997C9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7E3572-C154-46CD-A3BF-D3E35DF87341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6075" yWindow="1485" windowWidth="21600" windowHeight="11295" tabRatio="707" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1155" yWindow="2340" windowWidth="21600" windowHeight="11295" tabRatio="707" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0G" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="42">
   <si>
     <t>Main Process</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>Swapped</t>
+  </si>
+  <si>
+    <t>swapped</t>
   </si>
 </sst>
 </file>
@@ -508,7 +511,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:H17"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -851,7 +854,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1156,7 +1159,7 @@
         <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
@@ -1173,10 +1176,10 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" t="s">
         <v>30</v>
-      </c>
-      <c r="E17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="s">
         <v>35</v>
@@ -1193,7 +1196,7 @@
         <v>9000</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
@@ -1211,7 +1214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A10" sqref="A10:G10"/>
     </sheetView>
   </sheetViews>
@@ -1722,7 +1725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -2251,7 +2254,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A33" sqref="A33:F33"/>
     </sheetView>
   </sheetViews>
@@ -2965,7 +2968,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
